--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3637808.113051986</v>
+        <v>3656182.802518106</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800615</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>139.4384002192466</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.9688122184073</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>23.35455705266789</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>27.42561912430542</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>63.49046982291189</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>228.1525414882561</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5766315601733</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210772</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>22.01480823311093</v>
+        <v>75.30729779173569</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>10.70305333391218</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>139.5729560821718</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>167.7998565704446</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>127.2353539895462</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>93.87916681139878</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>118.9493286737848</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>36.56241635926716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.482788338503</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.84942852843601</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>110.6538577409937</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>15.74955790720865</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>219.5488928992479</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>180.1346586580595</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>98.30359535938337</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>121.2051997333533</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.30003116274762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>131.255981836551</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>73.65437485990687</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,13 +3560,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>143.8223193524146</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>94.72689530035018</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>117.1709514206834</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274105</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,10 +4071,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262925</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014458</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.42291167995485</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.4725825998845</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>555.4725825998845</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2204.94852396637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>2204.94852396637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>2204.94852396637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>2204.94852396637</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>704.5385225370727</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>704.5385225370727</v>
       </c>
       <c r="S4" t="n">
-        <v>2453.443748690007</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="T4" t="n">
-        <v>2425.7411031099</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U4" t="n">
-        <v>2425.7411031099</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V4" t="n">
-        <v>2425.7411031099</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W4" t="n">
-        <v>2425.7411031099</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>2425.7411031099</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>2204.94852396637</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>955.5060781830496</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2633.017303318312</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="U5" t="n">
-        <v>2071.879823690055</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="V5" t="n">
-        <v>2071.879823690055</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="W5" t="n">
-        <v>1719.111168419941</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.645410158861</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y5" t="n">
-        <v>955.5060781830496</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2619.88322151527</v>
+        <v>2566.052423981306</v>
       </c>
       <c r="T8" t="n">
-        <v>2401.248554487333</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U8" t="n">
-        <v>2401.248554487333</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V8" t="n">
-        <v>2401.248554487333</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W8" t="n">
-        <v>2401.248554487333</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X8" t="n">
-        <v>2027.782796226253</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.643464250441</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>489.3282683246672</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,19 +5121,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>816.5074119443557</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>816.5074119443557</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>816.5074119443557</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7148328008255</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1396.107276203138</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.6416303362487</v>
+        <v>192.044532683921</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>192.044532683921</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>192.044532683921</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>192.044532683921</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>192.044532683921</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>192.044532683921</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1378.765433513675</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1154.980018303181</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>865.8513795167394</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>865.8513795167394</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>576.4342094797788</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X16" t="n">
-        <v>576.4342094797788</v>
+        <v>192.044532683921</v>
       </c>
       <c r="Y16" t="n">
-        <v>355.6416303362487</v>
+        <v>192.044532683921</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3776.138751166741</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1461.984536861673</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1172.567366824712</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>944.5778159266949</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,25 +5753,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2577.03128074278</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3190.928350499668</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M21" t="n">
-        <v>3959.29649689213</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556163</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.69918977486</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>328.8766843813097</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>328.8766843813097</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>328.8766843813097</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>328.8766843813097</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5947,13 +5947,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550796</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>731.3177283550796</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.5251492115494</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,28 +5978,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128704</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2292.946699347402</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2497.969180129611</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3943.156846022673</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C25" t="n">
-        <v>3774.220663094766</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>3774.220663094766</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094766</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4638.007896100367</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4414.222480889874</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="U25" t="n">
-        <v>4414.222480889874</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="V25" t="n">
-        <v>4414.222480889874</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="W25" t="n">
-        <v>4124.805310852913</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X25" t="n">
-        <v>4124.805310852913</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y25" t="n">
-        <v>4124.805310852913</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4187.313048421693</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C28" t="n">
-        <v>4187.313048421693</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D28" t="n">
-        <v>4037.196409009357</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>4415.30259931971</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X28" t="n">
-        <v>4187.313048421693</v>
+        <v>1117.042059808748</v>
       </c>
       <c r="Y28" t="n">
-        <v>4187.313048421693</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6473,16 +6473,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,19 +6540,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1894.594339433115</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>3895.563459493836</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3726.627276565929</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3726.627276565929</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3726.627276565929</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3726.627276565929</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3558.45195488575</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>1065.491662355125</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U31" t="n">
-        <v>776.3630235686835</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V31" t="n">
-        <v>776.3630235686835</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W31" t="n">
-        <v>486.9458535317228</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="X31" t="n">
-        <v>486.9458535317228</v>
+        <v>4298.004503467606</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.1532743881928</v>
+        <v>4077.211924324076</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372322</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>732.358329063101</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C34" t="n">
-        <v>563.4221461351941</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D34" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>920.3704617344999</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y34" t="n">
-        <v>914.0067938933407</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,34 +6947,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N36" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2292.946699347402</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4094.598000559213</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="C37" t="n">
-        <v>3925.661817631306</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>3925.661817631306</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048913</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>4786.456214569943</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V37" t="n">
-        <v>4786.456214569943</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W37" t="n">
-        <v>4497.039044532982</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X37" t="n">
-        <v>4497.039044532982</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y37" t="n">
-        <v>4276.246465389452</v>
+        <v>674.7185717878251</v>
       </c>
     </row>
     <row r="38">
@@ -7169,49 +7169,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
         <v>1661.954360834046</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4515.659492876902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>4226.53085409046</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>4226.53085409046</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>4226.53085409046</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>3998.541303192443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701553</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766187</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1564.731711769079</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N42" t="n">
-        <v>1894.594339433111</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136707</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>807.0580565471694</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C43" t="n">
-        <v>638.1218736192625</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>638.1218736192625</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>490.2087800368694</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>343.318832538959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.9162705579</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.9162705579</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.9162705579</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.9162705579</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520939</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520939</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.7065213774091</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182378</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514065</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795214</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515103</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256431</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277022</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341653</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141258</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678157</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>1841.189502980816</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471176</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557899</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771457</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655703</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286098</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286098</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y46" t="n">
-        <v>579.400204154918</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>182.0340742867946</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>433.751552729297</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>189.0022427662461</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>52.49733361305132</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.86002301949857</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>38.86002301949887</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622843</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987299159</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O42" t="n">
-        <v>158.8724419039386</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504609</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>285.1031356539399</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445244</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>84.3377867533834</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.34929936254862</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>55.03466155613735</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>78.97148130981849</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>215.5752269645608</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>82.57161949449522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>87.26695224260956</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.7980031511806</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>66.9741054373431</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>45.57499673097763</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>50.61023300815276</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>100.3423613250359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,22 +25126,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>178.509544240926</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.2846221893472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.9908392620768</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>212.5829775386705</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>77.72524170597461</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>71.76667316302741</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>169.3520469159076</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.964352403793</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.16174167214</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
-      </c>
       <c r="E2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="F2" t="n">
         <v>723403.7605147613</v>
@@ -26329,31 +26329,31 @@
         <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="M2" t="n">
         <v>723403.7605147616</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147617</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147617</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029917</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029931</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029933</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90382.41863876034</v>
+        <v>-87854.09747531766</v>
       </c>
       <c r="C6" t="n">
-        <v>499585.4605757844</v>
+        <v>502113.7817392268</v>
       </c>
       <c r="D6" t="n">
-        <v>499585.4605757844</v>
+        <v>502113.7817392265</v>
       </c>
       <c r="E6" t="n">
-        <v>74918.03329884945</v>
+        <v>76952.852536846</v>
       </c>
       <c r="F6" t="n">
-        <v>600078.0697757455</v>
+        <v>602112.8890137423</v>
       </c>
       <c r="G6" t="n">
-        <v>600078.0697757455</v>
+        <v>602112.8890137423</v>
       </c>
       <c r="H6" t="n">
-        <v>600078.0697757457</v>
+        <v>602112.8890137424</v>
       </c>
       <c r="I6" t="n">
-        <v>600078.0697757457</v>
+        <v>602112.8890137424</v>
       </c>
       <c r="J6" t="n">
-        <v>423654.850583153</v>
+        <v>425689.6698211495</v>
       </c>
       <c r="K6" t="n">
-        <v>600078.0697757457</v>
+        <v>602112.8890137422</v>
       </c>
       <c r="L6" t="n">
-        <v>600078.0697757457</v>
+        <v>602112.8890137423</v>
       </c>
       <c r="M6" t="n">
-        <v>465277.0545419087</v>
+        <v>467311.8737799056</v>
       </c>
       <c r="N6" t="n">
-        <v>600078.0697757459</v>
+        <v>602112.8890137428</v>
       </c>
       <c r="O6" t="n">
-        <v>600078.069775745</v>
+        <v>602112.8890137422</v>
       </c>
       <c r="P6" t="n">
-        <v>600078.0697757454</v>
+        <v>602112.8890137426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054540983</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>242.4919698530151</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.269126437646321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.768192902246426</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>197.6094863337788</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>110.9252429860596</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>23.07162602003322</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>98.70524268180444</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551381</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.4009045758606</v>
+        <v>99.10841501723584</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>18.41969662100212</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>146.9500422544192</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443608</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444936</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961197</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041478</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304427</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565504</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927171</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540872</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946981</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647487</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104631</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.6130612256294</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354886</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354098</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386721</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127049</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.747805621573</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622975</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358975</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724835</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481345</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855516</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458541</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710951</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095115</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677456</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361472</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680328</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081161</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990342</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298619</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.971920355793</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196119</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171313</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263745</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065627</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235688</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337653</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336895</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.39802836989223</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351795</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>492.4584513372609</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>744.1759297797634</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35902,10 +35902,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>471.3659450073542</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>203.0727722009906</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.8730558045727</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>441.2361441450411</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>492.0670153019459</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>245.9534379510236</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M39" t="n">
-        <v>326.2624260966948</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350685</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005173</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560236</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004653</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.194573398012</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O42" t="n">
-        <v>441.236144145046</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.093414931524</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507368</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303319</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109164</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221102</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081104</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951458</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109112</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502039</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349759</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490626</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879385</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560234</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504652</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980117</v>
+        <v>383.8211928074494</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178367</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>492.1965505854637</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209227</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556528</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.214186879928</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.309841178972</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056031</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206023</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118003</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187445</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3656182.802518106</v>
+        <v>3731712.472182911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800617</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>139.4384002192466</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>293.0385923539574</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.35455705266789</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>6.791389034820234</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>227.6599794570911</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>63.49046982291189</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.279329433658</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210772</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>89.5609944144902</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>75.30729779173569</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.70305333391218</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.8395066620455</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>71.27546844094942</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.2353539895462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>93.87916681139878</v>
+        <v>69.48709613328914</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>43.13471348408279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>174.7611531036558</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>15.74955790720865</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>180.1346586580595</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>98.30359535938337</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121085</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20011114811113</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>131.255981836551</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>15.33492602331695</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>110.3519703867928</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.85017494300117</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>117.1709514206834</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>219.9420768090758</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1504.400259589023</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1504.400259589023</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1504.400259589023</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y2" t="n">
-        <v>1504.400259589023</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>704.5385225370727</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>704.5385225370727</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>490.2500993552354</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>490.2500993552354</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>490.2500993552354</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V4" t="n">
-        <v>490.2500993552354</v>
+        <v>229.7391536723322</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2633.017303318312</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2414.382636290375</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2414.382636290375</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2414.382636290375</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2414.382636290375</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X5" t="n">
-        <v>2414.382636290375</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.243304314563</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036446</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1512.612574238667</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
         <v>1036.358670716696</v>
@@ -4799,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2566.052423981306</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2347.417756953369</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2093.65597159146</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>1762.593084247889</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1409.824428977775</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1036.358670716696</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1899.212414302789</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4960,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,40 +4971,40 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>717.3178192226845</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>717.3178192226845</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>717.3178192226845</v>
+        <v>495.8438765125353</v>
       </c>
       <c r="T10" t="n">
-        <v>717.3178192226845</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="U10" t="n">
-        <v>717.3178192226845</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="V10" t="n">
-        <v>717.3178192226845</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="W10" t="n">
-        <v>717.3178192226845</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="X10" t="n">
-        <v>489.3282683246672</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y10" t="n">
         <v>268.5356891811371</v>
@@ -5021,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>635.4175688028198</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>485.300929390484</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>337.3878358080909</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>337.3878358080909</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>169.2125141279115</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279824</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y13" t="n">
-        <v>429.2835647425823</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5257,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.044532683921</v>
+        <v>278.9406688315597</v>
       </c>
       <c r="C16" t="n">
-        <v>192.044532683921</v>
+        <v>278.9406688315597</v>
       </c>
       <c r="D16" t="n">
-        <v>192.044532683921</v>
+        <v>278.9406688315597</v>
       </c>
       <c r="E16" t="n">
-        <v>192.044532683921</v>
+        <v>278.9406688315597</v>
       </c>
       <c r="F16" t="n">
-        <v>192.044532683921</v>
+        <v>278.9406688315597</v>
       </c>
       <c r="G16" t="n">
-        <v>192.044532683921</v>
+        <v>278.9406688315597</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819383</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X16" t="n">
-        <v>192.044532683921</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.044532683921</v>
+        <v>460.5891336617995</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>757.4105722479405</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>757.4105722479405</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>607.2939328356048</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>459.3808392532117</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>459.3808392532117</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>291.2055175730322</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>140.7875091209755</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>939.0590370781803</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,10 +5776,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5968,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.1598612984388</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1483.007626207187</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1483.007626207187</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>1483.007626207187</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.590456170226</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>965.6009052722087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.8083261286786</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>1117.042059808748</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>896.249480665218</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6454,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6467,22 +6469,22 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3895.563459493836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3726.627276565929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3726.627276565929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3726.627276565929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3726.627276565929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3558.45195488575</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4525.994054365623</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4525.994054365623</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4298.004503467606</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4077.211924324076</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,67 +6922,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1564.731711769082</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.7185717878251</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7123,22 +7125,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W37" t="n">
-        <v>674.7185717878251</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X37" t="n">
-        <v>674.7185717878251</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.7185717878251</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775518</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1076.454520280944</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7409,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7454,7 +7456,7 @@
         <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7490,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.0432218861031</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7603,16 +7605,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>413.0432218861031</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X43" t="n">
-        <v>413.0432218861031</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.0432218861031</v>
+        <v>337.3000764349712</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7734,13 +7736,13 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880509</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706318</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X46" t="n">
-        <v>303.4081673726145</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142017</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>176.7176547498453</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10115,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978225</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N36" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N42" t="n">
-        <v>392.1113620226437</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>369.0893880493732</v>
       </c>
       <c r="N45" t="n">
-        <v>50.62661940943661</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>77.6383599265867</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.34929936254862</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>55.03466155613735</v>
+        <v>79.42673223424698</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>67.2845319801892</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>111.4761992949215</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>103.0576765518772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>205.7980031511806</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>45.57499673097763</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>50.61023300815276</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>178.509544240926</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>35.9908392620768</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2497273287779</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>111.1955906715965</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.6433935203764</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>169.3520469159076</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>66.58092152751524</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.45548819888947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244622</v>
-      </c>
       <c r="E2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="F2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.760514761</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.760514761</v>
       </c>
       <c r="M2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="N2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="O2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147617</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26430,10 +26432,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26445,19 +26447,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26481,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531766</v>
+        <v>-87854.09747531777</v>
       </c>
       <c r="C6" t="n">
+        <v>502113.7817392266</v>
+      </c>
+      <c r="D6" t="n">
         <v>502113.7817392268</v>
       </c>
-      <c r="D6" t="n">
-        <v>502113.7817392265</v>
-      </c>
       <c r="E6" t="n">
-        <v>76952.852536846</v>
+        <v>76952.85253684658</v>
       </c>
       <c r="F6" t="n">
-        <v>602112.8890137423</v>
+        <v>602112.8890137421</v>
       </c>
       <c r="G6" t="n">
         <v>602112.8890137423</v>
       </c>
       <c r="H6" t="n">
-        <v>602112.8890137424</v>
+        <v>602112.8890137421</v>
       </c>
       <c r="I6" t="n">
-        <v>602112.8890137424</v>
+        <v>602112.8890137421</v>
       </c>
       <c r="J6" t="n">
-        <v>425689.6698211495</v>
+        <v>425689.6698211494</v>
       </c>
       <c r="K6" t="n">
-        <v>602112.8890137422</v>
+        <v>602112.8890137421</v>
       </c>
       <c r="L6" t="n">
+        <v>602112.889013742</v>
+      </c>
+      <c r="M6" t="n">
+        <v>467311.8737799055</v>
+      </c>
+      <c r="N6" t="n">
         <v>602112.8890137423</v>
       </c>
-      <c r="M6" t="n">
-        <v>467311.8737799056</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>602112.8890137429</v>
+      </c>
+      <c r="P6" t="n">
         <v>602112.8890137428</v>
-      </c>
-      <c r="O6" t="n">
-        <v>602112.8890137422</v>
-      </c>
-      <c r="P6" t="n">
-        <v>602112.8890137426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>242.4919698530151</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>93.19934630209622</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.768192902246426</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>279.7316093017708</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>155.0738622063895</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>110.9252429860596</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>16.7557760244263</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551381</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>275.7118973565173</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>99.10841501723584</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.41969662100212</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>11.30603228797338</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958065</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N36" t="n">
-        <v>492.0670153019459</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37867,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N42" t="n">
-        <v>725.3059354206565</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N45" t="n">
-        <v>383.8211928074494</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3731712.472182911</v>
+        <v>3724695.457291199</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.0385923539574</v>
+        <v>42.61789643688657</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.791389034820234</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>227.6599794570911</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>89.85217623098787</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.279329433658</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>89.5609944144902</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>296.4334436454549</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.8395066620455</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>71.27546844094942</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>69.48709613328914</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.3313788312329</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>43.13471348408279</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>174.7611531036558</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.03952420896927</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>29.18937547121085</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.33492602331695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>110.3519703867928</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.85017494300117</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9420768090758</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4363,19 +4363,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1718.957088916128</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>229.7391536723322</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
         <v>1394.624369323446</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2606.389317047528</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2387.75465001959</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2133.992864657682</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2133.992864657682</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.546461473041</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.546461473041</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238667</v>
+        <v>854.9003034538794</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>854.9003034538794</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.212414302789</v>
+        <v>854.9003034538794</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>495.8438765125353</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.3537517307267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>635.4175688028198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>485.300929390484</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>337.3878358080909</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>337.3878358080909</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>169.2125141279115</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0022165609664</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>986.0022165609664</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>986.0022165609664</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.9406688315597</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C16" t="n">
-        <v>278.9406688315597</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>278.9406688315597</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>278.9406688315597</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>278.9406688315597</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>278.9406688315597</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033469</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>909.3712637033469</v>
+        <v>558.5754693487575</v>
       </c>
       <c r="X16" t="n">
-        <v>681.3817128053296</v>
+        <v>558.5754693487575</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.5891336617995</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>607.2939328356048</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>459.3808392532117</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>459.3808392532117</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>291.2055175730322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>140.7875091209755</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>939.0590370781803</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1211.314749843308</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1211.314749843308</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.314749843308</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.314749843308</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,37 +6457,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>302.8060739576059</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>484.4545387878456</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,49 +6937,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>1187.92115703528</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.92115703528</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1172.431332769303</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,19 +7168,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1076.454520280944</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>787.3258814945024</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>787.3258814945024</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>787.3258814945024</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,10 +7390,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>786.0822064765186</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>558.0926555785013</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293934</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>711.072954880832</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142017</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>43.65987261462459</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>369.0893880493732</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>77.6383599265867</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="14">
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>79.42673223424698</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>27.19161950535806</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>67.2845319801892</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>111.4761992949215</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.2072968896586</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>192.3581855871784</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.2497273287779</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>111.1955906715965</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.6433935203764</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>66.58092152751524</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
-      </c>
       <c r="E2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147612</v>
-      </c>
       <c r="H2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.760514761</v>
       </c>
       <c r="I2" t="n">
         <v>723403.760514761</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="L2" t="n">
-        <v>723403.760514761</v>
-      </c>
       <c r="M2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.760514761</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26444,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531777</v>
+        <v>-87854.09747531757</v>
       </c>
       <c r="C6" t="n">
-        <v>502113.7817392266</v>
+        <v>502113.7817392267</v>
       </c>
       <c r="D6" t="n">
-        <v>502113.7817392268</v>
+        <v>502113.7817392265</v>
       </c>
       <c r="E6" t="n">
-        <v>76952.85253684658</v>
+        <v>75978.26127712482</v>
       </c>
       <c r="F6" t="n">
-        <v>602112.8890137421</v>
+        <v>601138.2977540205</v>
       </c>
       <c r="G6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="H6" t="n">
-        <v>602112.8890137421</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="I6" t="n">
-        <v>602112.8890137421</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="J6" t="n">
-        <v>425689.6698211494</v>
+        <v>424715.0785614276</v>
       </c>
       <c r="K6" t="n">
-        <v>602112.8890137421</v>
+        <v>601138.2977540208</v>
       </c>
       <c r="L6" t="n">
-        <v>602112.889013742</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="M6" t="n">
-        <v>467311.8737799055</v>
+        <v>466337.2825201836</v>
       </c>
       <c r="N6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540205</v>
       </c>
       <c r="O6" t="n">
-        <v>602112.8890137429</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="P6" t="n">
-        <v>602112.8890137428</v>
+        <v>601138.2977540204</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.19934630209622</v>
+        <v>343.620042219167</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.7316093017708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>155.0738622063895</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>84.56353657798367</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>16.7557760244263</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>275.7118973565173</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>58.24959797522808</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>11.30603228797338</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>250.7532875461493</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3724695.457291199</v>
+        <v>3729634.720140231</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800616</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88.42622435099841</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>42.61789643688657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>89.85217623098787</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14.5268783873314</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>110.0115294480441</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>296.4334436454549</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>320.4372744744567</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>87.77311891075307</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.2425576766696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.3313788312329</v>
+        <v>147.7402507536362</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.9753683655195</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>37.03952420896927</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>52.09082459045889</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>31.13654107019667</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896905</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185857</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051912</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.920809983603</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058389</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985771</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238277</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365907</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.920809983603</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058389</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985771</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404433</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365907</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4372,10 +4372,10 @@
         <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2606.389317047528</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="T5" t="n">
-        <v>2387.75465001959</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="U5" t="n">
-        <v>2133.992864657682</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V5" t="n">
-        <v>2133.992864657682</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.224209387568</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>1781.224209387568</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>854.9003034538794</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C8" t="n">
-        <v>854.9003034538794</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1655.051849797787</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1269.263597199543</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>858.2776924099353</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.505393690771</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>854.9003034538794</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="14">
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185177</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>558.5754693487575</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X16" t="n">
-        <v>558.5754693487575</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.5754693487575</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5980,7 +5980,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822458</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>859.1101172131499</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6472,22 +6472,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.8060739576059</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
         <v>265.3924131404652</v>
@@ -6612,13 +6612,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293931</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>933.2366688293931</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X31" t="n">
-        <v>705.2471179313758</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y31" t="n">
-        <v>484.4545387878456</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6727,7 +6727,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.465218971845</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1267.545208887397</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,13 +7025,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805471</v>
@@ -7408,34 +7408,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7484,31 +7484,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115527</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395488</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.90154205952</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278216</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336715</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115527</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395488</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.90154205952</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278216</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952633</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>325.2066423583029</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776809</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>198.7498794258379</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>27.19161950535806</v>
+        <v>138.7827475829548</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>114.6092849865753</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>130.2072968896586</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>173.6188307985782</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>78.82781133359613</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871786</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633773</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675359</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338497</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520945</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181937</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986275</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182121</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633773</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675359</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338443</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520945</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289465</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244625</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
@@ -26328,34 +26328,34 @@
         <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.760514761</v>
-      </c>
       <c r="I2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="O2" t="n">
+        <v>723403.7605147609</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147611</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.760514761</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26441,25 +26441,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
+        <v>29303.54555230238</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.5455523028</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230252</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871649</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531757</v>
+        <v>-87854.09747531803</v>
       </c>
       <c r="C6" t="n">
-        <v>502113.7817392267</v>
+        <v>502113.7817392269</v>
       </c>
       <c r="D6" t="n">
         <v>502113.7817392265</v>
       </c>
       <c r="E6" t="n">
-        <v>75978.26127712482</v>
+        <v>76855.39341087412</v>
       </c>
       <c r="F6" t="n">
-        <v>601138.2977540205</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="G6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.42988777</v>
       </c>
       <c r="H6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.42988777</v>
       </c>
       <c r="I6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="J6" t="n">
-        <v>424715.0785614276</v>
+        <v>425592.2106951773</v>
       </c>
       <c r="K6" t="n">
-        <v>601138.2977540208</v>
+        <v>602015.4298877701</v>
       </c>
       <c r="L6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="M6" t="n">
-        <v>466337.2825201836</v>
+        <v>467214.4146539329</v>
       </c>
       <c r="N6" t="n">
-        <v>601138.2977540205</v>
+        <v>602015.4298877703</v>
       </c>
       <c r="O6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877708</v>
       </c>
       <c r="P6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877699</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,13 +26752,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-5.506578843303772e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>266.2568172696846</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>343.620042219167</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>84.56353657798367</v>
+        <v>139.9152527805797</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.7829238717195</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>176.2703447939336</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>58.24959797522808</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>93.34689554633832</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>184.742310607042</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.844391802791506e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.803581122046533e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37393,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37630,7 +37630,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337044</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789723</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P43" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533704</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P46" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
